--- a/CaseStudy02/Notes.xlsx
+++ b/CaseStudy02/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef4c265bbe55b229/MSDS_6306_DoingDataScience/MSDS_6306_Homework/CaseStudy02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7288BA4F-815E-40F4-9F5D-4564DE320E3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{7288BA4F-815E-40F4-9F5D-4564DE320E3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{24ECB2C3-2C64-455A-8D4E-68F0B31703EB}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="10060" xr2:uid="{F64707BC-30B5-4CCC-B089-3702694EA230}"/>
+    <workbookView xWindow="3330" yWindow="2250" windowWidth="19200" windowHeight="9700" xr2:uid="{F64707BC-30B5-4CCC-B089-3702694EA230}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$N$1:$N$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>Categories</t>
   </si>
@@ -200,13 +199,61 @@
   </si>
   <si>
     <t>0,3</t>
+  </si>
+  <si>
+    <t>Working Years</t>
+  </si>
+  <si>
+    <t>Job Role</t>
+  </si>
+  <si>
+    <t>Years in role</t>
+  </si>
+  <si>
+    <t>Edu5</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>Stock Option</t>
+  </si>
+  <si>
+    <t>Total Years</t>
+  </si>
+  <si>
+    <t>year@comp</t>
+  </si>
+  <si>
+    <t>year@role</t>
+  </si>
+  <si>
+    <t>EduMarketing</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>env sat</t>
+  </si>
+  <si>
+    <t>rel sat</t>
+  </si>
+  <si>
+    <t>num compan</t>
+  </si>
+  <si>
+    <t>perf rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +266,14 @@
       <color rgb="FF333333"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,10 +319,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,8 +331,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -589,14 +647,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868EC5E5-6C05-4054-AE6E-1D5BBA1362DD}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="4" max="4" width="28.453125" customWidth="1"/>
     <col min="14" max="14" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -926,6 +985,9 @@
       </c>
     </row>
     <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>30</v>
       </c>
@@ -937,6 +999,9 @@
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" t="s">
+        <v>60</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>31</v>
       </c>
@@ -948,6 +1013,9 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>32</v>
       </c>
@@ -959,6 +1027,12 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
       <c r="N24" s="1" t="s">
         <v>33</v>
       </c>
@@ -970,6 +1044,12 @@
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
       <c r="N25" s="1" t="s">
         <v>34</v>
       </c>
@@ -981,6 +1061,12 @@
       </c>
     </row>
     <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>35</v>
       </c>
@@ -992,6 +1078,12 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1003,6 +1095,12 @@
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="N28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1013,8 +1111,67 @@
         <v>43</v>
       </c>
     </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E28" r:id="rId1" xr:uid="{2E0EC39A-2011-4E0C-A473-F7067C8D477D}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{03300933-756E-47F9-A041-D7B7C53BE672}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>